--- a/biology/Botanique/Musa_itinerans/Musa_itinerans.xlsx
+++ b/biology/Botanique/Musa_itinerans/Musa_itinerans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Musa itinerans est une espèce de Bananiers de la famille des Musacées, originaire d'Asie.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bananier pousse en Asie tempérée (Chine, Taïwan) et tropicale (Inde, Laos, Birmanie, Thaïlande, Viêt Nam)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bananier pousse en Asie tempérée (Chine, Taïwan) et tropicale (Inde, Laos, Birmanie, Thaïlande, Viêt Nam).
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 1949 par le botaniste britannique Ernest Entwistle Cheesman (en) (1898-1983)[3].
-En classification phylogénétique APG IV (2016)[4], comme en classification phylogénétique APG III (2009)[5], Musa itinerans est classé dans la section Musa du genre Musa, lui-même assigné à la famille des Musaceae[2].
-Liste des variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (11 décembre 2018)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1949 par le botaniste britannique Ernest Entwistle Cheesman (en) (1898-1983).
+En classification phylogénétique APG IV (2016), comme en classification phylogénétique APG III (2009), Musa itinerans est classé dans la section Musa du genre Musa, lui-même assigné à la famille des Musaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Musa_itinerans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musa_itinerans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 décembre 2018) :
 Musa itinerans var. annamica (R.V.Valmayor, L.D.Danh &amp; Häkkinen) Häkkinen (2008)
 Musa itinerans var. chinensis Häkkinen (2008)
 Musa itinerans var. chiumei H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang (2015)
